--- a/Gantt projet 3.xlsx
+++ b/Gantt projet 3.xlsx
@@ -1002,7 +1002,7 @@
     <cellStyle name="Valor do Período" xfId="13"/>
     <cellStyle name="Vérification" xfId="31" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -1143,119 +1143,6 @@
         </top>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1617,8 +1504,8 @@
   </sheetPr>
   <dimension ref="B1:BO28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.875" defaultRowHeight="30.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1952,9 +1839,11 @@
       <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
       <c r="G5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30.2" customHeight="1" x14ac:dyDescent="0.3">
